--- a/data/trans_dic/P08_2_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P08_2_R-Clase-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.08746054471164881</v>
+        <v>0.08498637154369428</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1010748434094715</v>
+        <v>0.09797018555260011</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.08690147351329885</v>
+        <v>0.08569116119144599</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.06940267629172867</v>
+        <v>0.06716239695716099</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1197181963234697</v>
+        <v>0.1188825062016061</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.0818402100575529</v>
+        <v>0.08650294969989568</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.07875471579853288</v>
+        <v>0.08480911045350431</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1003353998360533</v>
+        <v>0.1040262153096624</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1070054343447543</v>
+        <v>0.108417599788103</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.101638402837169</v>
+        <v>0.1032932723214592</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.09130548586655075</v>
+        <v>0.09003271008490189</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.08978671366721852</v>
+        <v>0.08915053534924088</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1462633163020818</v>
+        <v>0.1446712830787542</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1687622833985582</v>
+        <v>0.1700372181924257</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1510780502490374</v>
+        <v>0.1484857394230126</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1121409097153117</v>
+        <v>0.1129340793578635</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2045130112181219</v>
+        <v>0.2039858655661343</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1598275929857721</v>
+        <v>0.1628525151481002</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1578974199577326</v>
+        <v>0.1614097940501445</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1528722771090143</v>
+        <v>0.153570359962146</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1553717669250204</v>
+        <v>0.1567936536671949</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.15445450255626</v>
+        <v>0.1536902346204708</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1392522286451965</v>
+        <v>0.1397247532207222</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.123414016823692</v>
+        <v>0.1235783016120245</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0606507613522893</v>
+        <v>0.06040469760929539</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.07866160190807914</v>
+        <v>0.08075841218105545</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0777130363698072</v>
+        <v>0.07841633123043594</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.08753796804712075</v>
+        <v>0.08740235759107341</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05639969387255737</v>
+        <v>0.05590304931460137</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.07867974781089633</v>
+        <v>0.07947636493031048</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.08760327395550363</v>
+        <v>0.08768871236132932</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1200618987202912</v>
+        <v>0.121708980618382</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.06416022332026482</v>
+        <v>0.06583705086453542</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.0867854072414343</v>
+        <v>0.08890810990416875</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.09118984245274976</v>
+        <v>0.09005721366703218</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.110581933672135</v>
+        <v>0.1123596317410051</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1238675452520247</v>
+        <v>0.1219369991197534</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1424607709471684</v>
+        <v>0.1459867224871919</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1420626015124274</v>
+        <v>0.1431159797241064</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.142837843619177</v>
+        <v>0.1430847067587574</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1146919568103671</v>
+        <v>0.1173296064787584</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.146786978306947</v>
+        <v>0.1502171983023386</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1617491298149055</v>
+        <v>0.1623733247776295</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1756045701935333</v>
+        <v>0.1773969625865111</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1050340639993</v>
+        <v>0.1061674285981089</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1335454483069039</v>
+        <v>0.1363659927149029</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1395411795327679</v>
+        <v>0.1397018673112665</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1495985808963438</v>
+        <v>0.153050656053271</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.1823863927290007</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.1934396304712861</v>
+        <v>0.193439630471286</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1033632221389194</v>
+        <v>0.1032259639068149</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1521295397487438</v>
+        <v>0.1556497206392591</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1261249848637179</v>
+        <v>0.126613126890625</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1328428346104582</v>
+        <v>0.1358612752504721</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.171420422421189</v>
+        <v>0.1758386108750094</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.215611370445336</v>
+        <v>0.2155188580619011</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1996529959880329</v>
+        <v>0.1926293724467463</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2143637154723154</v>
+        <v>0.2137535514883887</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1289665254512119</v>
+        <v>0.1294511319552922</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1807770417928326</v>
+        <v>0.1786072788175595</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1524390260698575</v>
+        <v>0.153570264450701</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1689614833773824</v>
+        <v>0.1662503087437627</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1597743377085909</v>
+        <v>0.1589993982490313</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.218900989454101</v>
+        <v>0.2254857004739993</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1896410634042077</v>
+        <v>0.1917325387806085</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2012464230983284</v>
+        <v>0.2062288219320902</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3105650370936476</v>
+        <v>0.3054032958612928</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3283761644557437</v>
+        <v>0.3255168269272187</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3441684151215691</v>
+        <v>0.3408832509300208</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.314337912641783</v>
+        <v>0.321212369847247</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1831104284323791</v>
+        <v>0.1855846554041128</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2386750736989781</v>
+        <v>0.2394372116982189</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2109904883984562</v>
+        <v>0.2148388461321644</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2245216743614943</v>
+        <v>0.2230048491477338</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.1600399153595711</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.178578752168779</v>
+        <v>0.1785787521687791</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1677803579420442</v>
+        <v>0.1676178199793064</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.161618456776228</v>
+        <v>0.1634354708183646</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1431572267053894</v>
+        <v>0.1439251931799788</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1684185012031942</v>
+        <v>0.1702700326046399</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1712717423758726</v>
+        <v>0.1726861207585415</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1313431725045112</v>
+        <v>0.1337377817343716</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1284496328771334</v>
+        <v>0.1268201516397833</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1418239795080154</v>
+        <v>0.1414494282246163</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1761452386770727</v>
+        <v>0.1758224216828998</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1587917938081173</v>
+        <v>0.1572853087023068</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1440787478173605</v>
+        <v>0.1434765959948636</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1629231762354535</v>
+        <v>0.1636224734819197</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2115457139650342</v>
+        <v>0.2099464007536035</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2097939681819924</v>
+        <v>0.2101722506111169</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1865013267982969</v>
+        <v>0.1899806041959841</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2143211626299215</v>
+        <v>0.2165466180901935</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2301109582055258</v>
+        <v>0.230228638188925</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.186788942833363</v>
+        <v>0.1886097751755726</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1794664835738982</v>
+        <v>0.1829176898993989</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1799039985316087</v>
+        <v>0.1826239761204214</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2115360810357373</v>
+        <v>0.2110225907326604</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1940303081445077</v>
+        <v>0.1922386630820792</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1754021051713794</v>
+        <v>0.1762280304355022</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.193283110623252</v>
+        <v>0.1939759630366949</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.124347430692723</v>
+        <v>0.1259301477113743</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1409169863121961</v>
+        <v>0.1394924176323344</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.172215270693136</v>
+        <v>0.1743089019998682</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1567930571119724</v>
+        <v>0.1559996235097306</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.171981395499401</v>
+        <v>0.1757673657243516</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3003432548294888</v>
+        <v>0.2978168833297127</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2503310717076447</v>
+        <v>0.2507570362751294</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2672266241164684</v>
+        <v>0.2679078364610303</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1656102101108952</v>
+        <v>0.1650885882662455</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2452543534804022</v>
+        <v>0.2433269542508159</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2239123398181003</v>
+        <v>0.2249872772362631</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2277040168785336</v>
+        <v>0.2312960999061468</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1993232999459882</v>
+        <v>0.2073749876666925</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2109468083181763</v>
+        <v>0.2051757751058121</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2377976413616435</v>
+        <v>0.238618462933034</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.223011422349083</v>
+        <v>0.2195663607668568</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2424648781805209</v>
+        <v>0.2452593923165678</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3693777307467091</v>
+        <v>0.366800488796249</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3204734288066055</v>
+        <v>0.3203513476296292</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3169433506951971</v>
+        <v>0.3181873200985376</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2179573245163407</v>
+        <v>0.2161242059794828</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2944288601757413</v>
+        <v>0.2925109417419521</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.270154871771196</v>
+        <v>0.2731493950651272</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.268860017521597</v>
+        <v>0.2713487501687248</v>
       </c>
     </row>
     <row r="19">
@@ -1377,7 +1377,7 @@
         <v>0.250731820652614</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.2566189421443592</v>
+        <v>0.2566189421443591</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.01819527422077198</v>
+        <v>0.01825916644555471</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01859046367471634</v>
+        <v>0.01848500193159659</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.00745171114346664</v>
+        <v>0.007565167990347544</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01036570108153343</v>
+        <v>0.00959373764694656</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2984416082447676</v>
+        <v>0.3001979094382166</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.3276356193738207</v>
+        <v>0.3269959024504552</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2847960439193572</v>
+        <v>0.2809727009381259</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.292729160485973</v>
+        <v>0.2939590352412994</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2453979640847165</v>
+        <v>0.2480457753239933</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2691753095853964</v>
+        <v>0.2668106004719359</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2246154755838962</v>
+        <v>0.2275878413127767</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.233559189454177</v>
+        <v>0.2331550862779979</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.06053554661715294</v>
+        <v>0.05795525609967252</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.0701359623906542</v>
+        <v>0.06933128353777288</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.0445598487543388</v>
+        <v>0.04437486803076122</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.04653319219591755</v>
+        <v>0.04660304239701214</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3494746179002604</v>
+        <v>0.3523011839774249</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3856693361333078</v>
+        <v>0.3851505324430449</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3432556758884964</v>
+        <v>0.3402430090600709</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3500348853604178</v>
+        <v>0.3513911902759105</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2916786729659371</v>
+        <v>0.2918880813421345</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3164850372152476</v>
+        <v>0.3184206254553983</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2747546931503397</v>
+        <v>0.2763367020710213</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2800095271787298</v>
+        <v>0.2797072104960491</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.127470481331957</v>
+        <v>0.127946636163305</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1422904476338113</v>
+        <v>0.1430972614925921</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1330957313286558</v>
+        <v>0.1317283624508109</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1369313379255778</v>
+        <v>0.1368321745103128</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2180602525274425</v>
+        <v>0.2172913009636386</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2423352347964477</v>
+        <v>0.2416681920202653</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2118398174460075</v>
+        <v>0.2107562833448134</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2170759154543969</v>
+        <v>0.2167400662395733</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1776656041187042</v>
+        <v>0.1777685401365326</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1971370810132961</v>
+        <v>0.197956481091285</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.177328244661698</v>
+        <v>0.1769085405381923</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1804609784959842</v>
+        <v>0.1810469860166511</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1513565827931719</v>
+        <v>0.1522602481942171</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1688863050671587</v>
+        <v>0.1681620467252218</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.156111983805942</v>
+        <v>0.1579785348330006</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1598135912524647</v>
+        <v>0.1605921760109527</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2467959721952826</v>
+        <v>0.2463003522163304</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2711604659900047</v>
+        <v>0.271661474054075</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2410262138755335</v>
+        <v>0.2410340911786143</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2382732053552586</v>
+        <v>0.2387735723539303</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1970104581453133</v>
+        <v>0.196292266934178</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2191173894938458</v>
+        <v>0.2189868041574037</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1976350221787304</v>
+        <v>0.1968387687541467</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1965047096204201</v>
+        <v>0.1968541789203167</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>41437</v>
+        <v>40265</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>44191</v>
+        <v>42834</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>37289</v>
+        <v>36769</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>38154</v>
+        <v>36922</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>36715</v>
+        <v>36459</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>25735</v>
+        <v>27201</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>27332</v>
+        <v>29433</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>49005</v>
+        <v>50808</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>83513</v>
+        <v>84615</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>76398</v>
+        <v>77642</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>70866</v>
+        <v>69879</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>93213</v>
+        <v>92552</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>69296</v>
+        <v>68542</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>73785</v>
+        <v>74342</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>64826</v>
+        <v>63714</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>61649</v>
+        <v>62085</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>62720</v>
+        <v>62558</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>50258</v>
+        <v>51210</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>54799</v>
+        <v>56018</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>74665</v>
+        <v>75005</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>121261</v>
+        <v>122371</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>116098</v>
+        <v>115524</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>108080</v>
+        <v>108447</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>128123</v>
+        <v>128293</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>22255</v>
+        <v>22165</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>32712</v>
+        <v>33584</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>29315</v>
+        <v>29581</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>42299</v>
+        <v>42234</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>20973</v>
+        <v>20788</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>26595</v>
+        <v>26864</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>32612</v>
+        <v>32644</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>50803</v>
+        <v>51500</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>47402</v>
+        <v>48640</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>65425</v>
+        <v>67025</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>68347</v>
+        <v>67498</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>100226</v>
+        <v>101838</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>45451</v>
+        <v>44743</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>59244</v>
+        <v>60710</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>53590</v>
+        <v>53987</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>69021</v>
+        <v>69140</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>42650</v>
+        <v>43631</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>49616</v>
+        <v>50775</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>60215</v>
+        <v>60447</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>74306</v>
+        <v>75064</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>77599</v>
+        <v>78436</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>100676</v>
+        <v>102803</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>104586</v>
+        <v>104707</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>135589</v>
+        <v>138718</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
+        <v>55989</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>97815</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>66081</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>64074</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>29503</v>
+      </c>
+      <c r="H14" s="6" t="n">
         <v>56063</v>
       </c>
-      <c r="D14" s="6" t="n">
-        <v>95603</v>
-      </c>
-      <c r="E14" s="6" t="n">
-        <v>65826</v>
-      </c>
-      <c r="F14" s="6" t="n">
-        <v>62650</v>
-      </c>
-      <c r="G14" s="6" t="n">
-        <v>28761</v>
-      </c>
-      <c r="H14" s="6" t="n">
-        <v>56087</v>
-      </c>
       <c r="I14" s="6" t="n">
-        <v>33167</v>
+        <v>32000</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>40193</v>
+        <v>40078</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>91588</v>
+        <v>91932</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>160631</v>
+        <v>158703</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>104884</v>
+        <v>105662</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>111364</v>
+        <v>109577</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>86660</v>
+        <v>86240</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>137564</v>
+        <v>141702</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>98976</v>
+        <v>100068</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>94910</v>
+        <v>97260</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>52107</v>
+        <v>51241</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>85420</v>
+        <v>84676</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>57174</v>
+        <v>56629</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>58937</v>
+        <v>60226</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>130040</v>
+        <v>131797</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>212077</v>
+        <v>212754</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>145169</v>
+        <v>147817</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>147984</v>
+        <v>146985</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>207768</v>
+        <v>207567</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>187317</v>
+        <v>189423</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>164579</v>
+        <v>165462</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>190623</v>
+        <v>192719</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>122337</v>
+        <v>123347</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>100695</v>
+        <v>102531</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>106083</v>
+        <v>104738</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>122140</v>
+        <v>121818</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>343945</v>
+        <v>343314</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>305780</v>
+        <v>302879</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>284630</v>
+        <v>283440</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>324715</v>
+        <v>326108</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>261964</v>
+        <v>259984</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>243153</v>
+        <v>243592</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>214409</v>
+        <v>218409</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>242578</v>
+        <v>245097</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>164365</v>
+        <v>164449</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>143203</v>
+        <v>144599</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>148217</v>
+        <v>151067</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>154935</v>
+        <v>157278</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>413050</v>
+        <v>412047</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>373638</v>
+        <v>370188</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>346509</v>
+        <v>348141</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>385224</v>
+        <v>386605</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>43591</v>
+        <v>44145</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>71952</v>
+        <v>71224</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>106895</v>
+        <v>108195</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>89053</v>
+        <v>88602</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>97815</v>
+        <v>99968</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>228718</v>
+        <v>226794</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>184805</v>
+        <v>185120</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>222025</v>
+        <v>222591</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>152247</v>
+        <v>151767</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>311992</v>
+        <v>309541</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>304286</v>
+        <v>305746</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>318516</v>
+        <v>323540</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>69874</v>
+        <v>72696</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>107709</v>
+        <v>104762</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>147602</v>
+        <v>148112</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>126662</v>
+        <v>124706</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>137902</v>
+        <v>139492</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>281289</v>
+        <v>279327</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>236588</v>
+        <v>236497</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>263332</v>
+        <v>264366</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>200370</v>
+        <v>198684</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>374548</v>
+        <v>372108</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>367127</v>
+        <v>371196</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>376085</v>
+        <v>379566</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>5426</v>
+        <v>5445</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>4961</v>
+        <v>4933</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>2140</v>
+        <v>2172</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>2459</v>
+        <v>2276</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>372682</v>
+        <v>374875</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>363107</v>
+        <v>362398</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>308156</v>
+        <v>304019</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>246977</v>
+        <v>248014</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>379621</v>
+        <v>383717</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>370155</v>
+        <v>366904</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>307537</v>
+        <v>311606</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>252462</v>
+        <v>252025</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>18052</v>
+        <v>17282</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>18718</v>
+        <v>18503</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>12795</v>
+        <v>12742</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>11039</v>
+        <v>11056</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>436410</v>
+        <v>439940</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>427423</v>
+        <v>426848</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>371411</v>
+        <v>368151</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>295326</v>
+        <v>296470</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>451215</v>
+        <v>451539</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>435213</v>
+        <v>437875</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>376186</v>
+        <v>378352</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>302671</v>
+        <v>302344</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>416853</v>
+        <v>418410</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>486347</v>
+        <v>489105</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>450625</v>
+        <v>445996</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>471263</v>
+        <v>470922</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>736635</v>
+        <v>734037</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>860057</v>
+        <v>857690</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>748133</v>
+        <v>744306</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>789031</v>
+        <v>787810</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>1181177</v>
+        <v>1181861</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>1373459</v>
+        <v>1379168</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>1226636</v>
+        <v>1223733</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>1277017</v>
+        <v>1281164</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>494965</v>
+        <v>497920</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>577252</v>
+        <v>574776</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>528552</v>
+        <v>534871</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>550015</v>
+        <v>552694</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>833707</v>
+        <v>832033</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>962359</v>
+        <v>964137</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>851207</v>
+        <v>851235</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>866079</v>
+        <v>867898</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1309787</v>
+        <v>1305013</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>1526597</v>
+        <v>1525687</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>1367104</v>
+        <v>1361596</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>1390549</v>
+        <v>1393022</v>
       </c>
     </row>
     <row r="32">
